--- a/results/mp/deberta/corona/confidence/210/stop-words-desired-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-desired-0.35/avg_0.003_scores.xlsx
@@ -118,18 +118,18 @@
     <t>dear</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
@@ -145,13 +145,13 @@
     <t>share</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hand</t>
   </si>
   <si>
     <t>save</t>
@@ -1365,25 +1365,25 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.7467248908296943</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L23">
-        <v>171</v>
+        <v>47</v>
       </c>
       <c r="M23">
-        <v>181</v>
+        <v>47</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1391,25 +1391,25 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.746031746031746</v>
+        <v>0.7252747252747253</v>
       </c>
       <c r="L24">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="M24">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1417,25 +1417,25 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.7252747252747253</v>
+        <v>0.72</v>
       </c>
       <c r="L25">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="M25">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="N25">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O25">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1443,25 +1443,25 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.72</v>
+        <v>0.7154811715481172</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>171</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="N26">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1599,25 +1599,25 @@
         <v>43</v>
       </c>
       <c r="K32">
-        <v>0.6481481481481481</v>
+        <v>0.64</v>
       </c>
       <c r="L32">
-        <v>210</v>
+        <v>32</v>
       </c>
       <c r="M32">
-        <v>226</v>
+        <v>32</v>
       </c>
       <c r="N32">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>114</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1625,25 +1625,25 @@
         <v>44</v>
       </c>
       <c r="K33">
-        <v>0.64</v>
+        <v>0.6299212598425197</v>
       </c>
       <c r="L33">
-        <v>32</v>
+        <v>240</v>
       </c>
       <c r="M33">
-        <v>32</v>
+        <v>242</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>18</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1651,25 +1651,25 @@
         <v>45</v>
       </c>
       <c r="K34">
-        <v>0.6299212598425197</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L34">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="M34">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="N34">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="10:17">
